--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Il4-Cd53.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Il4-Cd53.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,12 +76,18 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +95,6 @@
   </si>
   <si>
     <t>Cd53</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.68474914116042</v>
+        <v>0.1761023333333333</v>
       </c>
       <c r="H2">
-        <v>1.68474914116042</v>
+        <v>0.528307</v>
       </c>
       <c r="I2">
-        <v>0.4358195365723739</v>
+        <v>0.03931819886781759</v>
       </c>
       <c r="J2">
-        <v>0.4358195365723739</v>
+        <v>0.03931819886781759</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>255.468040875684</v>
+        <v>1.469578333333333</v>
       </c>
       <c r="N2">
-        <v>255.468040875684</v>
+        <v>4.408735</v>
       </c>
       <c r="O2">
-        <v>0.4557926101179736</v>
+        <v>0.002535586904271686</v>
       </c>
       <c r="P2">
-        <v>0.4557926101179736</v>
+        <v>0.002535586904271686</v>
       </c>
       <c r="Q2">
-        <v>430.3995624592437</v>
+        <v>0.2587961735161111</v>
       </c>
       <c r="R2">
-        <v>430.3995624592437</v>
+        <v>2.329165561645</v>
       </c>
       <c r="S2">
-        <v>0.198643324114728</v>
+        <v>9.969471014878812E-05</v>
       </c>
       <c r="T2">
-        <v>0.198643324114728</v>
+        <v>9.969471014878811E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,309 +587,1177 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.68474914116042</v>
+        <v>0.1761023333333333</v>
       </c>
       <c r="H3">
-        <v>1.68474914116042</v>
+        <v>0.528307</v>
       </c>
       <c r="I3">
-        <v>0.4358195365723739</v>
+        <v>0.03931819886781759</v>
       </c>
       <c r="J3">
-        <v>0.4358195365723739</v>
+        <v>0.03931819886781759</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>305.023803890208</v>
+        <v>258.8225046666667</v>
       </c>
       <c r="N3">
-        <v>305.023803890208</v>
+        <v>776.4675140000001</v>
       </c>
       <c r="O3">
-        <v>0.5442073898820264</v>
+        <v>0.4465682015568621</v>
       </c>
       <c r="P3">
-        <v>0.5442073898820264</v>
+        <v>0.4465682015568621</v>
       </c>
       <c r="Q3">
-        <v>513.8885916375124</v>
+        <v>45.57924699097756</v>
       </c>
       <c r="R3">
-        <v>513.8885916375124</v>
+        <v>410.213222918798</v>
       </c>
       <c r="S3">
-        <v>0.237176212457646</v>
+        <v>0.01755825735685635</v>
       </c>
       <c r="T3">
-        <v>0.237176212457646</v>
+        <v>0.01755825735685635</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.40064170170436</v>
+        <v>0.1761023333333333</v>
       </c>
       <c r="H4">
-        <v>1.40064170170436</v>
+        <v>0.528307</v>
       </c>
       <c r="I4">
-        <v>0.362325169028005</v>
+        <v>0.03931819886781759</v>
       </c>
       <c r="J4">
-        <v>0.362325169028005</v>
+        <v>0.03931819886781759</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>255.468040875684</v>
+        <v>319.1227823333333</v>
       </c>
       <c r="N4">
-        <v>255.468040875684</v>
+        <v>957.368347</v>
       </c>
       <c r="O4">
-        <v>0.4557926101179736</v>
+        <v>0.550609334246089</v>
       </c>
       <c r="P4">
-        <v>0.4557926101179736</v>
+        <v>0.550609334246089</v>
       </c>
       <c r="Q4">
-        <v>357.819191503197</v>
+        <v>56.19826658872544</v>
       </c>
       <c r="R4">
-        <v>357.819191503197</v>
+        <v>505.784399298529</v>
       </c>
       <c r="S4">
-        <v>0.1651451345027104</v>
+        <v>0.02164896730236437</v>
       </c>
       <c r="T4">
-        <v>0.1651451345027104</v>
+        <v>0.02164896730236437</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.40064170170436</v>
+        <v>0.1761023333333333</v>
       </c>
       <c r="H5">
-        <v>1.40064170170436</v>
+        <v>0.528307</v>
       </c>
       <c r="I5">
-        <v>0.362325169028005</v>
+        <v>0.03931819886781759</v>
       </c>
       <c r="J5">
-        <v>0.362325169028005</v>
+        <v>0.03931819886781759</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>305.023803890208</v>
+        <v>0.1662686666666666</v>
       </c>
       <c r="N5">
-        <v>305.023803890208</v>
+        <v>0.498806</v>
       </c>
       <c r="O5">
-        <v>0.5442073898820264</v>
+        <v>0.0002868772927772122</v>
       </c>
       <c r="P5">
-        <v>0.5442073898820264</v>
+        <v>0.0002868772927772122</v>
       </c>
       <c r="Q5">
-        <v>427.2290597411179</v>
+        <v>0.02928030016022222</v>
       </c>
       <c r="R5">
-        <v>427.2290597411179</v>
+        <v>0.263522701442</v>
       </c>
       <c r="S5">
-        <v>0.1971800345252946</v>
+        <v>1.127949844807556E-05</v>
       </c>
       <c r="T5">
-        <v>0.1971800345252946</v>
+        <v>1.127949844807556E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.780312733460885</v>
+        <v>1.685940666666667</v>
       </c>
       <c r="H6">
-        <v>0.780312733460885</v>
+        <v>5.057822</v>
       </c>
       <c r="I6">
-        <v>0.201855294399621</v>
+        <v>0.376418353786762</v>
       </c>
       <c r="J6">
-        <v>0.201855294399621</v>
+        <v>0.376418353786762</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>255.468040875684</v>
+        <v>1.469578333333333</v>
       </c>
       <c r="N6">
-        <v>255.468040875684</v>
+        <v>4.408735</v>
       </c>
       <c r="O6">
-        <v>0.4557926101179736</v>
+        <v>0.002535586904271686</v>
       </c>
       <c r="P6">
-        <v>0.4557926101179736</v>
+        <v>0.002535586904271686</v>
       </c>
       <c r="Q6">
-        <v>199.3449652876021</v>
+        <v>2.477621875018889</v>
       </c>
       <c r="R6">
-        <v>199.3449652876021</v>
+        <v>22.29859687517</v>
       </c>
       <c r="S6">
-        <v>0.09200415150053524</v>
+        <v>0.0009544414483892203</v>
       </c>
       <c r="T6">
-        <v>0.09200415150053524</v>
+        <v>0.0009544414483892202</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1.685940666666667</v>
+      </c>
+      <c r="H7">
+        <v>5.057822</v>
+      </c>
+      <c r="I7">
+        <v>0.376418353786762</v>
+      </c>
+      <c r="J7">
+        <v>0.376418353786762</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>258.8225046666667</v>
+      </c>
+      <c r="N7">
+        <v>776.4675140000001</v>
+      </c>
+      <c r="O7">
+        <v>0.4465682015568621</v>
+      </c>
+      <c r="P7">
+        <v>0.4465682015568621</v>
+      </c>
+      <c r="Q7">
+        <v>436.3593860660565</v>
+      </c>
+      <c r="R7">
+        <v>3927.234474594508</v>
+      </c>
+      <c r="S7">
+        <v>0.168096467283549</v>
+      </c>
+      <c r="T7">
+        <v>0.168096467283549</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.685940666666667</v>
+      </c>
+      <c r="H8">
+        <v>5.057822</v>
+      </c>
+      <c r="I8">
+        <v>0.376418353786762</v>
+      </c>
+      <c r="J8">
+        <v>0.376418353786762</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>319.1227823333333</v>
+      </c>
+      <c r="N8">
+        <v>957.368347</v>
+      </c>
+      <c r="O8">
+        <v>0.550609334246089</v>
+      </c>
+      <c r="P8">
+        <v>0.550609334246089</v>
+      </c>
+      <c r="Q8">
+        <v>538.0220763955815</v>
+      </c>
+      <c r="R8">
+        <v>4842.198687560233</v>
+      </c>
+      <c r="S8">
+        <v>0.2072594591765378</v>
+      </c>
+      <c r="T8">
+        <v>0.2072594591765378</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.780312733460885</v>
-      </c>
-      <c r="H7">
-        <v>0.780312733460885</v>
-      </c>
-      <c r="I7">
-        <v>0.201855294399621</v>
-      </c>
-      <c r="J7">
-        <v>0.201855294399621</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>305.023803890208</v>
-      </c>
-      <c r="N7">
-        <v>305.023803890208</v>
-      </c>
-      <c r="O7">
-        <v>0.5442073898820264</v>
-      </c>
-      <c r="P7">
-        <v>0.5442073898820264</v>
-      </c>
-      <c r="Q7">
-        <v>238.0139581842051</v>
-      </c>
-      <c r="R7">
-        <v>238.0139581842051</v>
-      </c>
-      <c r="S7">
-        <v>0.1098511428990858</v>
-      </c>
-      <c r="T7">
-        <v>0.1098511428990858</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.685940666666667</v>
+      </c>
+      <c r="H9">
+        <v>5.057822</v>
+      </c>
+      <c r="I9">
+        <v>0.376418353786762</v>
+      </c>
+      <c r="J9">
+        <v>0.376418353786762</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.1662686666666666</v>
+      </c>
+      <c r="N9">
+        <v>0.498806</v>
+      </c>
+      <c r="O9">
+        <v>0.0002868772927772122</v>
+      </c>
+      <c r="P9">
+        <v>0.0002868772927772122</v>
+      </c>
+      <c r="Q9">
+        <v>0.2803191067257777</v>
+      </c>
+      <c r="R9">
+        <v>2.522871960532</v>
+      </c>
+      <c r="S9">
+        <v>0.0001079858782860012</v>
+      </c>
+      <c r="T9">
+        <v>0.0001079858782860012</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.400952</v>
+      </c>
+      <c r="H10">
+        <v>4.202856</v>
+      </c>
+      <c r="I10">
+        <v>0.3127892078295392</v>
+      </c>
+      <c r="J10">
+        <v>0.3127892078295392</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>1.469578333333333</v>
+      </c>
+      <c r="N10">
+        <v>4.408735</v>
+      </c>
+      <c r="O10">
+        <v>0.002535586904271686</v>
+      </c>
+      <c r="P10">
+        <v>0.002535586904271686</v>
+      </c>
+      <c r="Q10">
+        <v>2.05880870524</v>
+      </c>
+      <c r="R10">
+        <v>18.52927834716</v>
+      </c>
+      <c r="S10">
+        <v>0.0007931042191700944</v>
+      </c>
+      <c r="T10">
+        <v>0.0007931042191700943</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.400952</v>
+      </c>
+      <c r="H11">
+        <v>4.202856</v>
+      </c>
+      <c r="I11">
+        <v>0.3127892078295392</v>
+      </c>
+      <c r="J11">
+        <v>0.3127892078295392</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>258.8225046666667</v>
+      </c>
+      <c r="N11">
+        <v>776.4675140000001</v>
+      </c>
+      <c r="O11">
+        <v>0.4465682015568621</v>
+      </c>
+      <c r="P11">
+        <v>0.4465682015568621</v>
+      </c>
+      <c r="Q11">
+        <v>362.597905557776</v>
+      </c>
+      <c r="R11">
+        <v>3263.381150019984</v>
+      </c>
+      <c r="S11">
+        <v>0.1396817140068329</v>
+      </c>
+      <c r="T11">
+        <v>0.1396817140068329</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.400952</v>
+      </c>
+      <c r="H12">
+        <v>4.202856</v>
+      </c>
+      <c r="I12">
+        <v>0.3127892078295392</v>
+      </c>
+      <c r="J12">
+        <v>0.3127892078295392</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>319.1227823333333</v>
+      </c>
+      <c r="N12">
+        <v>957.368347</v>
+      </c>
+      <c r="O12">
+        <v>0.550609334246089</v>
+      </c>
+      <c r="P12">
+        <v>0.550609334246089</v>
+      </c>
+      <c r="Q12">
+        <v>447.075700155448</v>
+      </c>
+      <c r="R12">
+        <v>4023.681301399032</v>
+      </c>
+      <c r="S12">
+        <v>0.1722246574823841</v>
+      </c>
+      <c r="T12">
+        <v>0.1722246574823841</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.400952</v>
+      </c>
+      <c r="H13">
+        <v>4.202856</v>
+      </c>
+      <c r="I13">
+        <v>0.3127892078295392</v>
+      </c>
+      <c r="J13">
+        <v>0.3127892078295392</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.1662686666666666</v>
+      </c>
+      <c r="N13">
+        <v>0.498806</v>
+      </c>
+      <c r="O13">
+        <v>0.0002868772927772122</v>
+      </c>
+      <c r="P13">
+        <v>0.0002868772927772122</v>
+      </c>
+      <c r="Q13">
+        <v>0.232934421104</v>
+      </c>
+      <c r="R13">
+        <v>2.096409789936</v>
+      </c>
+      <c r="S13">
+        <v>8.973212115206698E-05</v>
+      </c>
+      <c r="T13">
+        <v>8.973212115206698E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.3844966666666667</v>
+      </c>
+      <c r="H14">
+        <v>1.15349</v>
+      </c>
+      <c r="I14">
+        <v>0.0858462015684799</v>
+      </c>
+      <c r="J14">
+        <v>0.08584620156847989</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>1.469578333333333</v>
+      </c>
+      <c r="N14">
+        <v>4.408735</v>
+      </c>
+      <c r="O14">
+        <v>0.002535586904271686</v>
+      </c>
+      <c r="P14">
+        <v>0.002535586904271686</v>
+      </c>
+      <c r="Q14">
+        <v>0.5650479705722222</v>
+      </c>
+      <c r="R14">
+        <v>5.085431735149999</v>
+      </c>
+      <c r="S14">
+        <v>0.0002176705044785051</v>
+      </c>
+      <c r="T14">
+        <v>0.0002176705044785051</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.3844966666666667</v>
+      </c>
+      <c r="H15">
+        <v>1.15349</v>
+      </c>
+      <c r="I15">
+        <v>0.0858462015684799</v>
+      </c>
+      <c r="J15">
+        <v>0.08584620156847989</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>258.8225046666667</v>
+      </c>
+      <c r="N15">
+        <v>776.4675140000001</v>
+      </c>
+      <c r="O15">
+        <v>0.4465682015568621</v>
+      </c>
+      <c r="P15">
+        <v>0.4465682015568621</v>
+      </c>
+      <c r="Q15">
+        <v>99.51639030265112</v>
+      </c>
+      <c r="R15">
+        <v>895.64751272386</v>
+      </c>
+      <c r="S15">
+        <v>0.03833618384492395</v>
+      </c>
+      <c r="T15">
+        <v>0.03833618384492393</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.3844966666666667</v>
+      </c>
+      <c r="H16">
+        <v>1.15349</v>
+      </c>
+      <c r="I16">
+        <v>0.0858462015684799</v>
+      </c>
+      <c r="J16">
+        <v>0.08584620156847989</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>319.1227823333333</v>
+      </c>
+      <c r="N16">
+        <v>957.368347</v>
+      </c>
+      <c r="O16">
+        <v>0.550609334246089</v>
+      </c>
+      <c r="P16">
+        <v>0.550609334246089</v>
+      </c>
+      <c r="Q16">
+        <v>122.7016460645589</v>
+      </c>
+      <c r="R16">
+        <v>1104.31481458103</v>
+      </c>
+      <c r="S16">
+        <v>0.04726771989317628</v>
+      </c>
+      <c r="T16">
+        <v>0.04726771989317628</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.3844966666666667</v>
+      </c>
+      <c r="H17">
+        <v>1.15349</v>
+      </c>
+      <c r="I17">
+        <v>0.0858462015684799</v>
+      </c>
+      <c r="J17">
+        <v>0.08584620156847989</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.1662686666666666</v>
+      </c>
+      <c r="N17">
+        <v>0.498806</v>
+      </c>
+      <c r="O17">
+        <v>0.0002868772927772122</v>
+      </c>
+      <c r="P17">
+        <v>0.0002868772927772122</v>
+      </c>
+      <c r="Q17">
+        <v>0.06392974810444443</v>
+      </c>
+      <c r="R17">
+        <v>0.5753677329399999</v>
+      </c>
+      <c r="S17">
+        <v>2.462732590117238E-05</v>
+      </c>
+      <c r="T17">
+        <v>2.462732590117238E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.8314096666666666</v>
+      </c>
+      <c r="H18">
+        <v>2.494229</v>
+      </c>
+      <c r="I18">
+        <v>0.1856280379474014</v>
+      </c>
+      <c r="J18">
+        <v>0.1856280379474014</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>1.469578333333333</v>
+      </c>
+      <c r="N18">
+        <v>4.408735</v>
+      </c>
+      <c r="O18">
+        <v>0.002535586904271686</v>
+      </c>
+      <c r="P18">
+        <v>0.002535586904271686</v>
+      </c>
+      <c r="Q18">
+        <v>1.221821632257222</v>
+      </c>
+      <c r="R18">
+        <v>10.996394690315</v>
+      </c>
+      <c r="S18">
+        <v>0.0004706760220850786</v>
+      </c>
+      <c r="T18">
+        <v>0.0004706760220850785</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.8314096666666666</v>
+      </c>
+      <c r="H19">
+        <v>2.494229</v>
+      </c>
+      <c r="I19">
+        <v>0.1856280379474014</v>
+      </c>
+      <c r="J19">
+        <v>0.1856280379474014</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>258.8225046666667</v>
+      </c>
+      <c r="N19">
+        <v>776.4675140000001</v>
+      </c>
+      <c r="O19">
+        <v>0.4465682015568621</v>
+      </c>
+      <c r="P19">
+        <v>0.4465682015568621</v>
+      </c>
+      <c r="Q19">
+        <v>215.1875323307451</v>
+      </c>
+      <c r="R19">
+        <v>1936.687790976706</v>
+      </c>
+      <c r="S19">
+        <v>0.08289557906469999</v>
+      </c>
+      <c r="T19">
+        <v>0.08289557906469998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.8314096666666666</v>
+      </c>
+      <c r="H20">
+        <v>2.494229</v>
+      </c>
+      <c r="I20">
+        <v>0.1856280379474014</v>
+      </c>
+      <c r="J20">
+        <v>0.1856280379474014</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>319.1227823333333</v>
+      </c>
+      <c r="N20">
+        <v>957.368347</v>
+      </c>
+      <c r="O20">
+        <v>0.550609334246089</v>
+      </c>
+      <c r="P20">
+        <v>0.550609334246089</v>
+      </c>
+      <c r="Q20">
+        <v>265.3217660854958</v>
+      </c>
+      <c r="R20">
+        <v>2387.895894769463</v>
+      </c>
+      <c r="S20">
+        <v>0.1022085303916264</v>
+      </c>
+      <c r="T20">
+        <v>0.1022085303916264</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.8314096666666666</v>
+      </c>
+      <c r="H21">
+        <v>2.494229</v>
+      </c>
+      <c r="I21">
+        <v>0.1856280379474014</v>
+      </c>
+      <c r="J21">
+        <v>0.1856280379474014</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.1662686666666666</v>
+      </c>
+      <c r="N21">
+        <v>0.498806</v>
+      </c>
+      <c r="O21">
+        <v>0.0002868772927772122</v>
+      </c>
+      <c r="P21">
+        <v>0.0002868772927772122</v>
+      </c>
+      <c r="Q21">
+        <v>0.1382373767304444</v>
+      </c>
+      <c r="R21">
+        <v>1.244136390574</v>
+      </c>
+      <c r="S21">
+        <v>5.325246898989612E-05</v>
+      </c>
+      <c r="T21">
+        <v>5.325246898989612E-05</v>
       </c>
     </row>
   </sheetData>
